--- a/Device_Value_Datasets_consolidation_job.xlsx
+++ b/Device_Value_Datasets_consolidation_job.xlsx
@@ -1868,7 +1868,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1885,6 +1885,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
@@ -1945,7 +1951,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1986,6 +1992,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1994,11 +2008,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2014,7 +2024,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2099,7 +2109,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2508,8 +2518,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D8" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2578,7 +2588,7 @@
       <c r="D3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -2718,7 +2728,7 @@
       <c r="D10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -2738,7 +2748,7 @@
       <c r="D11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -2758,7 +2768,7 @@
       <c r="D12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -2778,7 +2788,7 @@
       <c r="D13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2798,7 +2808,7 @@
       <c r="D14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -2818,7 +2828,7 @@
       <c r="D15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -2838,7 +2848,7 @@
       <c r="D16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -2858,7 +2868,7 @@
       <c r="D17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -2878,7 +2888,7 @@
       <c r="D18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -2898,7 +2908,7 @@
       <c r="D19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -2918,7 +2928,7 @@
       <c r="D20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="12" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -2938,7 +2948,7 @@
       <c r="D21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -2958,7 +2968,7 @@
       <c r="D22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="12" t="s">
         <v>109</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -2978,7 +2988,7 @@
       <c r="D23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="12" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -2998,7 +3008,7 @@
       <c r="D24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -3006,7 +3016,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -3018,7 +3028,7 @@
       <c r="D25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>119</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -3029,7 +3039,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3041,7 +3051,7 @@
       <c r="D26" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -3052,7 +3062,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3064,7 +3074,7 @@
       <c r="D27" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -3075,7 +3085,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -3087,7 +3097,7 @@
       <c r="D28" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>131</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -3098,7 +3108,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3110,7 +3120,7 @@
       <c r="D29" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -3121,7 +3131,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -3133,7 +3143,7 @@
       <c r="D30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -3142,12 +3152,12 @@
       <c r="G30" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -3159,7 +3169,7 @@
       <c r="D31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -3170,7 +3180,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3182,7 +3192,7 @@
       <c r="D32" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>146</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -3193,7 +3203,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -3205,7 +3215,7 @@
       <c r="D33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>149</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -3219,7 +3229,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -3231,7 +3241,7 @@
       <c r="D34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="12" t="s">
         <v>142</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -3245,7 +3255,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -3257,13 +3267,13 @@
       <c r="D35" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="15" t="s">
         <v>156</v>
       </c>
       <c r="H35" s="9" t="s">
@@ -3323,3936 +3333,3936 @@
   </sheetPr>
   <dimension ref="A1:G355"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.52734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="47.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="13.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="15" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="47.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="13.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="16" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
+    <row r="2" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="19" t="s">
+    <row r="3" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="19" t="s">
+    <row r="4" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="21" t="s">
+    <row r="5" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="21" t="s">
+    <row r="6" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="21" t="s">
+    <row r="7" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="21" t="s">
+    <row r="8" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="21" t="s">
+    <row r="9" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="21" t="s">
+    <row r="10" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="21" t="s">
+    <row r="11" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="21" t="s">
+    <row r="12" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="21" t="s">
+    <row r="13" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="21" t="s">
+    <row r="14" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="21" t="s">
+    <row r="15" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="19" t="s">
+    <row r="16" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="19" t="s">
+    <row r="17" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="19" t="s">
+    <row r="18" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="19" t="s">
+    <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="19" t="s">
+    <row r="20" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="19" t="s">
+    <row r="21" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="19" t="s">
+    <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="19" t="s">
+    <row r="23" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="19" t="s">
+    <row r="24" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="19" t="s">
+    <row r="25" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="19" t="s">
+    <row r="26" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="19" t="s">
+    <row r="27" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="19" t="s">
+    <row r="28" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="19" t="s">
+    <row r="29" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="30" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="19" t="s">
+    <row r="30" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="19" t="s">
+    <row r="31" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="19" t="s">
+    <row r="32" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="33" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="19" t="s">
+    <row r="33" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="19" t="s">
+    <row r="34" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="19" t="s">
+    <row r="35" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="19" t="s">
+    <row r="36" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="19" t="s">
+    <row r="37" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="19" t="s">
+    <row r="38" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="19" t="s">
+    <row r="39" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="19" t="s">
+    <row r="40" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="19" t="s">
+    <row r="41" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="19" t="s">
+    <row r="42" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="19" t="s">
+    <row r="43" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="44" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="19" t="s">
+    <row r="44" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="19" t="s">
+    <row r="45" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="19" t="s">
+    <row r="46" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="47" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="19" t="s">
+    <row r="47" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="19" t="s">
+    <row r="48" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="19" t="s">
+    <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="50" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="19" t="s">
+    <row r="50" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="51" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="19" t="s">
+    <row r="51" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="52" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="19" t="s">
+    <row r="52" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="19" t="s">
+    <row r="53" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="54" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="19" t="s">
+    <row r="54" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="19" t="s">
+    <row r="55" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="19" t="s">
+    <row r="56" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="19" t="s">
+    <row r="57" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="58" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="19" t="s">
+    <row r="58" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="19" t="s">
+    <row r="59" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="20" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="19" t="s">
+    <row r="60" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="19" t="s">
+    <row r="61" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="19" t="s">
+    <row r="62" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="19" t="s">
+    <row r="63" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="19" t="s">
+    <row r="64" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="65" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="19" t="s">
+    <row r="65" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="19" t="s">
+    <row r="66" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="19" t="s">
+    <row r="67" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="68" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="19" t="s">
+    <row r="68" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="69" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="19" t="s">
+    <row r="69" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="70" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="19" t="s">
+    <row r="70" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="20" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="71" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="19" t="s">
+    <row r="71" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="72" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="19" t="s">
+    <row r="72" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="73" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="19" t="s">
+    <row r="73" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="74" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="19" t="s">
+    <row r="74" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="75" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="19" t="s">
+    <row r="75" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="76" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="19" t="s">
+    <row r="76" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="77" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="19" t="s">
+    <row r="77" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="78" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="19" t="s">
+    <row r="78" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="19" t="s">
+    <row r="79" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="80" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="19" t="s">
+    <row r="80" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="81" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="19" t="s">
+    <row r="81" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="82" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="19" t="s">
+    <row r="82" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="20" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="83" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" s="19" t="s">
+    <row r="83" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="20" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="84" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="19" t="s">
+    <row r="84" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="20" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="85" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="19" t="s">
+    <row r="85" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="86" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="19" t="s">
+    <row r="86" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="87" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="19" t="s">
+    <row r="87" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="20" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="88" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="19" t="s">
+    <row r="88" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="20" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="89" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="19" t="s">
+    <row r="89" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="20" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="90" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="19" t="s">
+    <row r="90" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="91" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="19" t="s">
+    <row r="91" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="92" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="19" t="s">
+    <row r="92" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="93" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" s="19" t="s">
+    <row r="93" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="94" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="19" t="s">
+    <row r="94" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="20" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="95" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="19" t="s">
+    <row r="95" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="96" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="19" t="s">
+    <row r="96" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="97" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" s="19" t="s">
+    <row r="97" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="98" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B98" s="19" t="s">
+    <row r="98" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B99" s="19" t="s">
+    <row r="99" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="20" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="100" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B100" s="19" t="s">
+    <row r="100" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="20" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="101" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B101" s="19" t="s">
+    <row r="101" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="20" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="102" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" s="19" t="s">
+    <row r="102" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="103" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B103" s="19" t="s">
+    <row r="103" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="20" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="104" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B104" s="19" t="s">
+    <row r="104" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="20" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="105" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B105" s="19" t="s">
+    <row r="105" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="106" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B106" s="19" t="s">
+    <row r="106" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="107" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107" s="19" t="s">
+    <row r="107" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="20" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="108" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" s="19" t="s">
+    <row r="108" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="20" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="109" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" s="19" t="s">
+    <row r="109" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="20" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="110" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110" s="19" t="s">
+    <row r="110" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="111" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111" s="19" t="s">
+    <row r="111" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="112" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B112" s="19" t="s">
+    <row r="112" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="20" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="113" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B113" s="19" t="s">
+    <row r="113" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="20" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="114" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B114" s="19" t="s">
+    <row r="114" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="115" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="19" t="s">
+    <row r="115" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="20" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="116" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116" s="19" t="s">
+    <row r="116" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="20" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="117" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="19" t="s">
+    <row r="117" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="20" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="118" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B118" s="19" t="s">
+    <row r="118" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="20" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="119" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B119" s="19" t="s">
+    <row r="119" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="20" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="120" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B120" s="19" t="s">
+    <row r="120" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="121" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B121" s="19" t="s">
+    <row r="121" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="20" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="122" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B122" s="19" t="s">
+    <row r="122" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="20" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="123" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B123" s="19" t="s">
+    <row r="123" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="124" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B124" s="19" t="s">
+    <row r="124" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="125" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B125" s="19" t="s">
+    <row r="125" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="20" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="126" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="19" t="s">
+    <row r="126" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="20" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="127" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B127" s="19" t="s">
+    <row r="127" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="20" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="128" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B128" s="19" t="s">
+    <row r="128" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="20" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="129" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B129" s="19" t="s">
+    <row r="129" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="20" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="130" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B130" s="19" t="s">
+    <row r="130" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="20" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="131" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B131" s="19" t="s">
+    <row r="131" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="132" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B132" s="19" t="s">
+    <row r="132" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="133" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B133" s="19" t="s">
+    <row r="133" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="20" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="134" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B134" s="19" t="s">
+    <row r="134" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="20" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="135" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B135" s="19" t="s">
+    <row r="135" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="136" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B136" s="19" t="s">
+    <row r="136" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C136" s="20" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="137" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B137" s="19" t="s">
+    <row r="137" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="138" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B138" s="19" t="s">
+    <row r="138" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="139" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B139" s="19" t="s">
+    <row r="139" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="140" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B140" s="19" t="s">
+    <row r="140" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="141" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" s="19" t="s">
+    <row r="141" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C141" s="20" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="142" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B142" s="19" t="s">
+    <row r="142" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="143" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B143" s="19" t="s">
+    <row r="143" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="144" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B144" s="19" t="s">
+    <row r="144" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C144" s="20" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="145" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B145" s="19" t="s">
+    <row r="145" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="20" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="146" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B146" s="19" t="s">
+    <row r="146" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="147" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B147" s="19" t="s">
+    <row r="147" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="148" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B148" s="19" t="s">
+    <row r="148" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C148" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="149" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B149" s="19" t="s">
+    <row r="149" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C149" s="20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="150" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B150" s="19" t="s">
+    <row r="150" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C150" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="151" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B151" s="19" t="s">
+    <row r="151" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C151" s="20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="152" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B152" s="19" t="s">
+    <row r="152" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C152" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="153" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B153" s="19" t="s">
+    <row r="153" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="20" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="154" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B154" s="19" t="s">
+    <row r="154" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C154" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="155" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B155" s="19" t="s">
+    <row r="155" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C155" s="20" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="156" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B156" s="19" t="s">
+    <row r="156" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="C156" s="20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="157" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B157" s="19" t="s">
+    <row r="157" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="C157" s="20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="158" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B158" s="19" t="s">
+    <row r="158" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="159" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B159" s="19" t="s">
+    <row r="159" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="20" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="160" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B160" s="19" t="s">
+    <row r="160" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C160" s="20" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="161" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" s="19" t="s">
+    <row r="161" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C161" s="20" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="162" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162" s="19" t="s">
+    <row r="162" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C162" s="19" t="s">
+      <c r="C162" s="20" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="163" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163" s="19" t="s">
+    <row r="163" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C163" s="20" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="164" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164" s="19" t="s">
+    <row r="164" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C164" s="19" t="s">
+      <c r="C164" s="20" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="165" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" s="19" t="s">
+    <row r="165" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C165" s="20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="166" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B166" s="19" t="s">
+    <row r="166" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="167" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B167" s="19" t="s">
+    <row r="167" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C167" s="20" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="168" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B168" s="19" t="s">
+    <row r="168" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B168" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C168" s="19" t="s">
+      <c r="C168" s="20" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="169" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B169" s="19" t="s">
+    <row r="169" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C169" s="19" t="s">
+      <c r="C169" s="20" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="170" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B170" s="19" t="s">
+    <row r="170" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C170" s="20" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="171" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B171" s="19" t="s">
+    <row r="171" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="20" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="172" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B172" s="19" t="s">
+    <row r="172" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C172" s="19" t="s">
+      <c r="C172" s="20" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="173" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B173" s="19" t="s">
+    <row r="173" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C173" s="20" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="174" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B174" s="19" t="s">
+    <row r="174" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C174" s="19" t="s">
+      <c r="C174" s="20" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="175" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B175" s="19" t="s">
+    <row r="175" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C175" s="19" t="s">
+      <c r="C175" s="20" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="176" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B176" s="19" t="s">
+    <row r="176" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C176" s="19" t="s">
+      <c r="C176" s="20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="177" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B177" s="19" t="s">
+    <row r="177" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="20" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="178" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B178" s="19" t="s">
+    <row r="178" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B179" s="19" t="s">
+      <c r="A179" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C179" s="15" t="s">
+      <c r="C179" s="16" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B180" s="19" t="s">
+      <c r="A180" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C180" s="16" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B181" s="19" t="s">
+      <c r="A181" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C181" s="15" t="s">
+      <c r="C181" s="16" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B182" s="19" t="s">
+      <c r="A182" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C182" s="15" t="s">
+      <c r="C182" s="16" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B183" s="19" t="s">
+      <c r="A183" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C183" s="15" t="s">
+      <c r="C183" s="16" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B184" s="19" t="s">
+      <c r="A184" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C184" s="15" t="s">
+      <c r="C184" s="16" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B185" s="19" t="s">
+      <c r="A185" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C185" s="15" t="s">
+      <c r="C185" s="16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="186" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B186" s="19" t="s">
+    <row r="186" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C186" s="19" t="s">
+      <c r="C186" s="20" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="187" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B187" s="19" t="s">
+    <row r="187" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C187" s="19" t="s">
+      <c r="C187" s="20" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="188" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B188" s="19" t="s">
+    <row r="188" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C188" s="19" t="s">
+      <c r="C188" s="20" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="189" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B189" s="19" t="s">
+    <row r="189" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C189" s="19" t="s">
+      <c r="C189" s="20" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="190" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B190" s="19" t="s">
+    <row r="190" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C190" s="19" t="s">
+      <c r="C190" s="20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="191" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B191" s="19" t="s">
+    <row r="191" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="20" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="192" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B192" s="19" t="s">
+    <row r="192" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B192" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="C192" s="20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="193" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B193" s="19" t="s">
+    <row r="193" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B193" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C193" s="19" t="s">
+      <c r="C193" s="20" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="194" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B194" s="19" t="s">
+    <row r="194" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B194" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C194" s="19" t="s">
+      <c r="C194" s="20" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="195" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B195" s="19" t="s">
+    <row r="195" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="20" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="196" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B196" s="19" t="s">
+    <row r="196" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C196" s="19" t="s">
+      <c r="C196" s="20" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="197" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B197" s="19" t="s">
+    <row r="197" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C197" s="19" t="s">
+      <c r="C197" s="20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="198" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B198" s="19" t="s">
+    <row r="198" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B198" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C198" s="19" t="s">
+      <c r="C198" s="20" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="199" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B199" s="19" t="s">
+    <row r="199" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="C199" s="20" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="200" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B200" s="19" t="s">
+    <row r="200" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C200" s="19" t="s">
+      <c r="C200" s="20" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="201" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B201" s="19" t="s">
+    <row r="201" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B201" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="20" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="202" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B202" s="19" t="s">
+    <row r="202" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C202" s="20" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="203" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B203" s="19" t="s">
+    <row r="203" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B203" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C203" s="20" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="204" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B204" s="19" t="s">
+    <row r="204" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B204" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C204" s="19" t="s">
+      <c r="C204" s="20" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="205" s="20" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B205" s="19" t="s">
+    <row r="205" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C205" s="20" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B206" s="21" t="s">
+      <c r="A206" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B206" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" s="16" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B207" s="21" t="s">
+      <c r="A207" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B207" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="C207" s="16" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B208" s="21" t="s">
+      <c r="A208" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B208" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B209" s="21" t="s">
+      <c r="A209" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B209" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C209" s="15" t="s">
+      <c r="C209" s="16" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B210" s="21" t="s">
+      <c r="A210" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B210" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C210" s="15" t="s">
+      <c r="C210" s="16" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B211" s="21" t="s">
+      <c r="A211" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B211" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="C211" s="16" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B212" s="21" t="s">
+      <c r="A212" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B212" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C212" s="15" t="s">
+      <c r="C212" s="16" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B213" s="21" t="s">
+      <c r="A213" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B213" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C213" s="15" t="s">
+      <c r="C213" s="16" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B214" s="21" t="s">
+      <c r="A214" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B214" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C214" s="15" t="s">
+      <c r="C214" s="16" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B215" s="21" t="s">
+      <c r="A215" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B215" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C215" s="15" t="s">
+      <c r="C215" s="16" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B216" s="21" t="s">
+      <c r="A216" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B216" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C216" s="15" t="s">
+      <c r="C216" s="16" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B217" s="21" t="s">
+      <c r="A217" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B217" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="C217" s="16" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B218" s="21" t="s">
+      <c r="A218" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B218" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C218" s="15" t="s">
+      <c r="C218" s="16" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B219" s="21" t="s">
+      <c r="A219" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B219" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C219" s="15" t="s">
+      <c r="C219" s="16" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B220" s="21" t="s">
+      <c r="A220" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B220" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="16" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B221" s="21" t="s">
+      <c r="A221" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B221" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C221" s="15" t="s">
+      <c r="C221" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B222" s="21" t="s">
+      <c r="A222" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B222" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C222" s="15" t="s">
+      <c r="C222" s="16" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B223" s="21" t="s">
+      <c r="A223" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B223" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C223" s="15" t="s">
+      <c r="C223" s="16" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B224" s="21" t="s">
+      <c r="A224" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B224" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C224" s="15" t="s">
+      <c r="C224" s="16" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B225" s="21" t="s">
+      <c r="A225" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B225" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C225" s="15" t="s">
+      <c r="C225" s="16" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B226" s="21" t="s">
+      <c r="A226" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B226" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C226" s="15" t="s">
+      <c r="C226" s="16" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B227" s="21" t="s">
+      <c r="A227" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B227" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="C227" s="16" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B228" s="21" t="s">
+      <c r="A228" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B228" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C228" s="15" t="s">
+      <c r="C228" s="16" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B229" s="21" t="s">
+      <c r="A229" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B229" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C229" s="15" t="s">
+      <c r="C229" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B230" s="21" t="s">
+      <c r="A230" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B230" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C230" s="15" t="s">
+      <c r="C230" s="16" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B231" s="22" t="s">
+      <c r="A231" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B231" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="C231" s="15" t="s">
+      <c r="C231" s="16" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B232" s="22" t="s">
+      <c r="A232" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B232" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="C232" s="15" t="s">
+      <c r="C232" s="16" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B233" s="22" t="s">
+      <c r="A233" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B233" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="C233" s="15" t="s">
+      <c r="C233" s="16" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B234" s="22" t="s">
+      <c r="A234" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B234" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C234" s="15" t="s">
+      <c r="C234" s="16" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B235" s="22" t="s">
+      <c r="A235" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B235" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C235" s="15" t="s">
+      <c r="C235" s="16" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B236" s="22" t="s">
+      <c r="A236" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B236" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C236" s="15" t="s">
+      <c r="C236" s="16" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B237" s="22" t="s">
+      <c r="A237" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B237" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C237" s="15" t="s">
+      <c r="C237" s="16" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B238" s="22" t="s">
+      <c r="A238" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B238" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C238" s="15" t="s">
+      <c r="C238" s="16" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B239" s="22" t="s">
+      <c r="A239" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B239" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C239" s="15" t="s">
+      <c r="C239" s="16" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B240" s="22" t="s">
+      <c r="A240" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B240" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C240" s="15" t="s">
+      <c r="C240" s="16" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B241" s="22" t="s">
+      <c r="A241" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B241" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="16" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B242" s="22" t="s">
+      <c r="A242" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B242" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C242" s="15" t="s">
+      <c r="C242" s="16" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B243" s="22" t="s">
+      <c r="A243" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B243" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C243" s="15" t="s">
+      <c r="C243" s="16" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B244" s="22" t="s">
+      <c r="A244" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B244" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C244" s="15" t="s">
+      <c r="C244" s="16" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B245" s="22" t="s">
+      <c r="A245" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B245" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C245" s="15" t="s">
+      <c r="C245" s="16" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B246" s="22" t="s">
+      <c r="A246" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B246" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C246" s="15" t="s">
+      <c r="C246" s="16" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B247" s="22" t="s">
+      <c r="A247" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B247" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C247" s="15" t="s">
+      <c r="C247" s="16" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B248" s="22" t="s">
+      <c r="A248" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B248" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C248" s="15" t="s">
+      <c r="C248" s="16" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B249" s="22" t="s">
+      <c r="A249" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B249" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="C249" s="15" t="s">
+      <c r="C249" s="16" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B250" s="22" t="s">
+      <c r="A250" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B250" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C250" s="15" t="s">
+      <c r="C250" s="16" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B251" s="22" t="s">
+      <c r="A251" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B251" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C251" s="15" t="s">
+      <c r="C251" s="16" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B252" s="22" t="s">
+      <c r="A252" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B252" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C252" s="15" t="s">
+      <c r="C252" s="16" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B253" s="22" t="s">
+      <c r="A253" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B253" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C253" s="15" t="s">
+      <c r="C253" s="16" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B254" s="22" t="s">
+      <c r="A254" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B254" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C254" s="15" t="s">
+      <c r="C254" s="16" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B255" s="22" t="s">
+      <c r="A255" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B255" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C255" s="15" t="s">
+      <c r="C255" s="16" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B256" s="22" t="s">
+      <c r="A256" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B256" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="C256" s="16" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B257" s="22" t="s">
+      <c r="A257" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B257" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C257" s="15" t="s">
+      <c r="C257" s="16" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B258" s="22" t="s">
+      <c r="A258" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B258" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="C258" s="16" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B259" s="22" t="s">
+      <c r="A259" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B259" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="C259" s="16" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B260" s="22" t="s">
+      <c r="A260" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B260" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="C260" s="16" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B261" s="15" t="s">
+      <c r="A261" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B261" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="16" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B262" s="22" t="s">
+      <c r="A262" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B262" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C262" s="15" t="s">
+      <c r="C262" s="16" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B263" s="22" t="s">
+      <c r="A263" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B263" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="C263" s="16" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B264" s="22" t="s">
+      <c r="A264" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B264" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="C264" s="16" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B265" s="22" t="s">
+      <c r="A265" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B265" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="16" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B266" s="22" t="s">
+      <c r="A266" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B266" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="C266" s="16" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B267" s="22" t="s">
+      <c r="A267" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B267" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="16" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B268" s="22" t="s">
+      <c r="A268" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B268" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="16" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B269" s="22" t="s">
+      <c r="A269" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B269" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B270" s="22" t="s">
+      <c r="A270" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B270" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C270" s="16" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B271" s="22" t="s">
+      <c r="A271" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B271" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C271" s="16" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B272" s="22" t="s">
+      <c r="A272" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B272" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="16" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B273" s="22" t="s">
+      <c r="A273" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B273" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="16" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B274" s="22" t="s">
+      <c r="A274" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B274" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C274" s="15" t="s">
+      <c r="C274" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B275" s="22" t="s">
+      <c r="A275" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B275" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="C275" s="16" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B276" s="22" t="s">
+      <c r="A276" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B276" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="C276" s="16" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B277" s="22" t="s">
+      <c r="A277" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B277" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="C277" s="16" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B278" s="22" t="s">
+      <c r="A278" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B278" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C278" s="15" t="s">
+      <c r="C278" s="16" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B279" s="22" t="s">
+      <c r="A279" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B279" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="C279" s="16" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B280" s="22" t="s">
+      <c r="A280" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B280" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C280" s="15" t="s">
+      <c r="C280" s="16" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B281" s="22" t="s">
+      <c r="A281" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B281" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C281" s="15" t="s">
+      <c r="C281" s="16" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B282" s="22" t="s">
+      <c r="A282" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B282" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="C282" s="16" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B283" s="22" t="s">
+      <c r="A283" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B283" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="C283" s="16" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B284" s="22" t="s">
+      <c r="A284" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B284" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C284" s="16" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B285" s="22" t="s">
+      <c r="A285" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B285" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="16" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B286" s="22" t="s">
+      <c r="A286" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B286" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="16" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B287" s="22" t="s">
+      <c r="A287" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B287" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="16" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B288" s="22" t="s">
+      <c r="A288" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B288" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="16" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B289" s="22" t="s">
+      <c r="A289" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B289" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="C289" s="16" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B290" s="22" t="s">
+      <c r="A290" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B290" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="C290" s="16" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B291" s="22" t="s">
+      <c r="A291" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B291" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C291" s="15" t="s">
+      <c r="C291" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B292" s="22" t="s">
+      <c r="A292" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B292" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="C292" s="16" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B293" s="22" t="s">
+      <c r="A293" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B293" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="C293" s="16" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B294" s="22" t="s">
+      <c r="A294" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B294" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="C294" s="16" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B295" s="22" t="s">
+      <c r="A295" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B295" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="C295" s="16" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B296" s="22" t="s">
+      <c r="A296" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B296" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C296" s="16" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B297" s="22" t="s">
+      <c r="A297" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B297" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="C297" s="16" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B298" s="22" t="s">
+      <c r="A298" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B298" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="C298" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B299" s="22" t="s">
+      <c r="A299" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B299" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="C299" s="16" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B300" s="22" t="s">
+      <c r="A300" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B300" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="C300" s="16" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B301" s="22" t="s">
+      <c r="A301" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B301" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="C301" s="16" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B302" s="22" t="s">
+      <c r="A302" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B302" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C302" s="15" t="s">
+      <c r="C302" s="16" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B303" s="22" t="s">
+      <c r="A303" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B303" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C303" s="15" t="s">
+      <c r="C303" s="16" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B304" s="15" t="s">
+      <c r="A304" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B304" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C304" s="15" t="s">
+      <c r="C304" s="16" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B305" s="15" t="s">
+      <c r="A305" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B305" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C305" s="16" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B306" s="15" t="s">
+      <c r="A306" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B306" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="C306" s="16" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B307" s="15" t="s">
+      <c r="A307" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B307" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="C307" s="16" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="15" t="s">
+      <c r="A308" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B308" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C308" s="15" t="s">
+      <c r="B308" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C308" s="16" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B309" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C309" s="15" t="s">
+      <c r="B309" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C309" s="16" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="15" t="s">
+      <c r="A310" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B310" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C310" s="15" t="s">
+      <c r="B310" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C310" s="16" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="15" t="s">
+      <c r="A311" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B311" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C311" s="15" t="s">
+      <c r="B311" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C311" s="16" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B312" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C312" s="15" t="s">
+      <c r="B312" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C312" s="16" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="15" t="s">
+      <c r="A313" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B313" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C313" s="15" t="s">
+      <c r="B313" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C313" s="16" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="15" t="s">
+      <c r="A314" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B314" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C314" s="15" t="s">
+      <c r="B314" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C314" s="16" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="15" t="s">
+      <c r="A315" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B315" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C315" s="15" t="s">
+      <c r="B315" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C315" s="16" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="15" t="s">
+      <c r="A316" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B316" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C316" s="15" t="s">
+      <c r="B316" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C316" s="16" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="15" t="s">
+      <c r="A317" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B317" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C317" s="15" t="s">
+      <c r="B317" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C317" s="16" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="15" t="s">
+      <c r="A318" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B318" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C318" s="15" t="s">
+      <c r="B318" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C318" s="16" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="15" t="s">
+      <c r="A319" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B319" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C319" s="15" t="s">
+      <c r="B319" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C319" s="16" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="15" t="s">
+      <c r="A320" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B320" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C320" s="15" t="s">
+      <c r="B320" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C320" s="16" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="15" t="s">
+      <c r="A321" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B321" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C321" s="15" t="s">
+      <c r="B321" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C321" s="16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="15" t="s">
+      <c r="A322" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B322" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C322" s="15" t="s">
+      <c r="B322" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C322" s="16" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="15" t="s">
+      <c r="A323" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B323" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C323" s="15" t="s">
+      <c r="B323" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C323" s="16" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="15" t="s">
+      <c r="A324" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B324" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C324" s="15" t="s">
+      <c r="B324" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C324" s="16" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="15" t="s">
+      <c r="A325" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B325" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C325" s="15" t="s">
+      <c r="B325" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C325" s="16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="15" t="s">
+      <c r="A326" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B326" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C326" s="15" t="s">
+      <c r="B326" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C326" s="16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="15" t="s">
+      <c r="A327" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B327" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C327" s="15" t="s">
+      <c r="B327" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C327" s="16" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B328" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C328" s="15" t="s">
+      <c r="B328" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C328" s="16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="15" t="s">
+      <c r="A329" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B329" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C329" s="15" t="s">
+      <c r="B329" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C329" s="16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="15" t="s">
+      <c r="A330" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B330" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C330" s="15" t="s">
+      <c r="B330" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C330" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="15" t="s">
+      <c r="A331" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B331" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C331" s="15" t="s">
+      <c r="B331" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C331" s="16" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="15" t="s">
+      <c r="A332" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B332" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C332" s="15" t="s">
+      <c r="B332" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C332" s="16" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="15" t="s">
+      <c r="A333" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B333" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C333" s="15" t="s">
+      <c r="B333" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C333" s="16" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="15" t="s">
+      <c r="A334" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B334" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C334" s="15" t="s">
+      <c r="B334" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C334" s="16" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="15" t="s">
+      <c r="A335" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B335" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C335" s="15" t="s">
+      <c r="B335" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C335" s="16" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="15" t="s">
+      <c r="A336" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B336" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C336" s="15" t="s">
+      <c r="B336" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C336" s="16" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="15" t="s">
+      <c r="A337" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B337" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C337" s="15" t="s">
+      <c r="B337" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C337" s="16" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="15" t="s">
+      <c r="A338" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B338" s="22" t="s">
+      <c r="B338" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C338" s="15" t="s">
+      <c r="C338" s="16" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="15" t="s">
+      <c r="A339" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B339" s="22" t="s">
+      <c r="B339" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C339" s="15" t="s">
+      <c r="C339" s="16" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="15" t="s">
+      <c r="A340" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B340" s="22" t="s">
+      <c r="B340" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C340" s="15" t="s">
+      <c r="C340" s="16" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="15" t="s">
+      <c r="A341" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B341" s="22" t="s">
+      <c r="B341" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C341" s="15" t="s">
+      <c r="C341" s="16" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="15" t="s">
+      <c r="A342" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B342" s="22" t="s">
+      <c r="B342" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C342" s="15" t="s">
+      <c r="C342" s="16" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="15" t="s">
+      <c r="A343" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B343" s="22" t="s">
+      <c r="B343" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C343" s="15" t="s">
+      <c r="C343" s="16" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="15" t="s">
+      <c r="A344" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B344" s="22" t="s">
+      <c r="B344" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C344" s="15" t="s">
+      <c r="C344" s="16" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="15" t="s">
+      <c r="A345" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B345" s="22" t="s">
+      <c r="B345" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C345" s="15" t="s">
+      <c r="C345" s="16" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="15" t="s">
+      <c r="A346" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B346" s="22" t="s">
+      <c r="B346" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C346" s="15" t="s">
+      <c r="C346" s="16" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="15" t="s">
+      <c r="A347" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B347" s="22" t="s">
+      <c r="B347" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C347" s="15" t="s">
+      <c r="C347" s="16" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="15" t="s">
+      <c r="A348" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B348" s="22" t="s">
+      <c r="B348" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C348" s="15" t="s">
+      <c r="C348" s="16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="15" t="s">
+      <c r="A349" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B349" s="22" t="s">
+      <c r="B349" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C349" s="15" t="s">
+      <c r="C349" s="16" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="15" t="s">
+      <c r="A350" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B350" s="22" t="s">
+      <c r="B350" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C350" s="15" t="s">
+      <c r="C350" s="16" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="15" t="s">
+      <c r="A351" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B351" s="22" t="s">
+      <c r="B351" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C351" s="15" t="s">
+      <c r="C351" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="15" t="s">
+      <c r="A352" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B352" s="22" t="s">
+      <c r="B352" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C352" s="15" t="s">
+      <c r="C352" s="16" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="15" t="s">
+      <c r="A353" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B353" s="22" t="s">
+      <c r="B353" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C353" s="15" t="s">
+      <c r="C353" s="16" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="15" t="s">
+      <c r="A354" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B354" s="22" t="s">
+      <c r="B354" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C354" s="15" t="s">
+      <c r="C354" s="16" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="15" t="s">
+      <c r="A355" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B355" s="22" t="s">
+      <c r="B355" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C355" s="15" t="s">
+      <c r="C355" s="16" t="s">
         <v>527</v>
       </c>
     </row>
@@ -7286,9 +7296,9 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="8" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="8" width="11.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="11.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="24" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="15.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="11.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="24" width="11.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="8" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="8" width="16.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="8" width="11.17"/>
@@ -7325,13 +7335,13 @@
       <c r="J1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="25" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>530</v>
       </c>
       <c r="N1" s="9" t="s">
@@ -7369,13 +7379,13 @@
       <c r="J2" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K2" s="23" t="n">
+      <c r="K2" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="25" t="n">
+      <c r="M2" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -7413,13 +7423,13 @@
       <c r="J3" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K3" s="23" t="n">
+      <c r="K3" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="25" t="n">
+      <c r="M3" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N3" s="8" t="s">
@@ -7457,13 +7467,13 @@
       <c r="J4" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K4" s="23" t="n">
+      <c r="K4" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M4" s="25" t="n">
+      <c r="M4" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N4" s="8" t="s">
@@ -7501,13 +7511,13 @@
       <c r="J5" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K5" s="23" t="n">
+      <c r="K5" s="24" t="n">
         <v>650</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="25" t="n">
+      <c r="M5" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N5" s="8" t="s">
@@ -7545,13 +7555,13 @@
       <c r="J6" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K6" s="23" t="n">
+      <c r="K6" s="24" t="n">
         <v>300</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="25" t="n">
+      <c r="M6" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N6" s="8" t="s">
@@ -7589,13 +7599,13 @@
       <c r="J7" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K7" s="23" t="n">
+      <c r="K7" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M7" s="25" t="n">
+      <c r="M7" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N7" s="8" t="s">
@@ -7630,13 +7640,13 @@
       <c r="J8" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K8" s="23" t="n">
+      <c r="K8" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="25" t="n">
+      <c r="M8" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N8" s="8" t="s">
@@ -7671,13 +7681,13 @@
       <c r="J9" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K9" s="23" t="n">
+      <c r="K9" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="25" t="n">
+      <c r="M9" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N9" s="8" t="s">
@@ -7712,13 +7722,13 @@
       <c r="J10" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K10" s="23" t="n">
+      <c r="K10" s="24" t="n">
         <v>650</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="25" t="n">
+      <c r="M10" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N10" s="8" t="s">
@@ -7753,13 +7763,13 @@
       <c r="J11" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K11" s="23" t="n">
+      <c r="K11" s="24" t="n">
         <v>300</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="25" t="n">
+      <c r="M11" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N11" s="8" t="s">
@@ -7794,13 +7804,13 @@
       <c r="J12" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K12" s="23" t="n">
+      <c r="K12" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M12" s="25" t="n">
+      <c r="M12" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N12" s="8" t="s">
@@ -7838,13 +7848,13 @@
       <c r="J13" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K13" s="23" t="n">
+      <c r="K13" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M13" s="25" t="n">
+      <c r="M13" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N13" s="8" t="s">
@@ -7882,13 +7892,13 @@
       <c r="J14" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K14" s="23" t="n">
+      <c r="K14" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M14" s="25" t="n">
+      <c r="M14" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N14" s="8" t="s">
@@ -7926,13 +7936,13 @@
       <c r="J15" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K15" s="23" t="n">
+      <c r="K15" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M15" s="25" t="n">
+      <c r="M15" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N15" s="8" t="s">
@@ -7970,13 +7980,13 @@
       <c r="J16" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K16" s="23" t="n">
+      <c r="K16" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M16" s="25" t="n">
+      <c r="M16" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N16" s="8" t="s">
@@ -8011,13 +8021,13 @@
       <c r="J17" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K17" s="23" t="n">
+      <c r="K17" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="25" t="n">
+      <c r="M17" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N17" s="8" t="s">
@@ -8052,13 +8062,13 @@
       <c r="J18" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K18" s="23" t="n">
+      <c r="K18" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="25" t="n">
+      <c r="M18" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N18" s="8" t="s">
@@ -8093,13 +8103,13 @@
       <c r="J19" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K19" s="23" t="n">
+      <c r="K19" s="24" t="n">
         <v>650</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M19" s="25" t="n">
+      <c r="M19" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N19" s="8" t="s">
@@ -8134,13 +8144,13 @@
       <c r="J20" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K20" s="23" t="n">
+      <c r="K20" s="24" t="n">
         <v>300</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="25" t="n">
+      <c r="M20" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N20" s="8" t="s">
@@ -8175,13 +8185,13 @@
       <c r="J21" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K21" s="23" t="n">
+      <c r="K21" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M21" s="25" t="n">
+      <c r="M21" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N21" s="8" t="s">
@@ -8216,13 +8226,13 @@
       <c r="J22" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K22" s="23" t="n">
+      <c r="K22" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="25" t="n">
+      <c r="M22" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N22" s="8" t="s">
@@ -8257,13 +8267,13 @@
       <c r="J23" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K23" s="23" t="n">
+      <c r="K23" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="25" t="n">
+      <c r="M23" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N23" s="8" t="s">
@@ -8298,13 +8308,13 @@
       <c r="J24" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K24" s="23" t="n">
+      <c r="K24" s="24" t="n">
         <v>650</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="25" t="n">
+      <c r="M24" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N24" s="8" t="s">
@@ -8339,13 +8349,13 @@
       <c r="J25" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K25" s="23" t="n">
+      <c r="K25" s="24" t="n">
         <v>300</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="25" t="n">
+      <c r="M25" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N25" s="8" t="s">
@@ -8380,13 +8390,13 @@
       <c r="J26" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K26" s="23" t="n">
+      <c r="K26" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M26" s="25" t="n">
+      <c r="M26" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N26" s="8" t="s">
@@ -8421,13 +8431,13 @@
       <c r="J27" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K27" s="23" t="n">
+      <c r="K27" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M27" s="25" t="n">
+      <c r="M27" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N27" s="8" t="s">
@@ -8462,13 +8472,13 @@
       <c r="J28" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K28" s="23" t="n">
+      <c r="K28" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M28" s="25" t="n">
+      <c r="M28" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N28" s="8" t="s">
@@ -8503,13 +8513,13 @@
       <c r="J29" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K29" s="23" t="n">
+      <c r="K29" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M29" s="25" t="n">
+      <c r="M29" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N29" s="8" t="s">
@@ -8544,13 +8554,13 @@
       <c r="J30" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K30" s="23" t="n">
+      <c r="K30" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M30" s="25" t="n">
+      <c r="M30" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N30" s="8" t="s">
@@ -8585,13 +8595,13 @@
       <c r="J31" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K31" s="23" t="n">
+      <c r="K31" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M31" s="25" t="n">
+      <c r="M31" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N31" s="8" t="s">
@@ -8626,13 +8636,13 @@
       <c r="J32" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K32" s="23" t="n">
+      <c r="K32" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M32" s="25" t="n">
+      <c r="M32" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N32" s="8" t="s">
@@ -8667,13 +8677,13 @@
       <c r="J33" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K33" s="23" t="n">
+      <c r="K33" s="24" t="n">
         <v>650</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="25" t="n">
+      <c r="M33" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N33" s="8" t="s">
@@ -8708,13 +8718,13 @@
       <c r="J34" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K34" s="23" t="n">
+      <c r="K34" s="24" t="n">
         <v>300</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="25" t="n">
+      <c r="M34" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N34" s="8" t="s">
@@ -8749,13 +8759,13 @@
       <c r="J35" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K35" s="23" t="n">
+      <c r="K35" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M35" s="25" t="n">
+      <c r="M35" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N35" s="8" t="s">
@@ -8790,13 +8800,13 @@
       <c r="J36" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K36" s="23" t="n">
+      <c r="K36" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M36" s="25" t="n">
+      <c r="M36" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N36" s="8" t="s">
@@ -8831,13 +8841,13 @@
       <c r="J37" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K37" s="23" t="n">
+      <c r="K37" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M37" s="25" t="n">
+      <c r="M37" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N37" s="8" t="s">
@@ -8872,13 +8882,13 @@
       <c r="J38" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K38" s="23" t="n">
+      <c r="K38" s="24" t="n">
         <v>650</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="25" t="n">
+      <c r="M38" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N38" s="8" t="s">
@@ -8913,13 +8923,13 @@
       <c r="J39" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K39" s="23" t="n">
+      <c r="K39" s="24" t="n">
         <v>300</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M39" s="25" t="n">
+      <c r="M39" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N39" s="8" t="s">
@@ -8954,13 +8964,13 @@
       <c r="J40" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K40" s="23" t="n">
+      <c r="K40" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M40" s="25" t="n">
+      <c r="M40" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N40" s="8" t="s">
@@ -8995,13 +9005,13 @@
       <c r="J41" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K41" s="23" t="n">
+      <c r="K41" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M41" s="25" t="n">
+      <c r="M41" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N41" s="8" t="s">
@@ -9036,13 +9046,13 @@
       <c r="J42" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K42" s="23" t="n">
+      <c r="K42" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M42" s="25" t="n">
+      <c r="M42" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N42" s="8" t="s">
@@ -9077,13 +9087,13 @@
       <c r="J43" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K43" s="23" t="n">
+      <c r="K43" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M43" s="25" t="n">
+      <c r="M43" s="26" t="n">
         <v>45726</v>
       </c>
       <c r="N43" s="8" t="s">
@@ -9118,13 +9128,13 @@
       <c r="J44" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K44" s="23" t="n">
+      <c r="K44" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M44" s="25" t="n">
+      <c r="M44" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N44" s="8" t="s">
@@ -9159,13 +9169,13 @@
       <c r="J45" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K45" s="23" t="n">
+      <c r="K45" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="25" t="n">
+      <c r="M45" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N45" s="8" t="s">
@@ -9200,13 +9210,13 @@
       <c r="J46" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K46" s="23" t="n">
+      <c r="K46" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M46" s="25" t="n">
+      <c r="M46" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N46" s="8" t="s">
@@ -9241,13 +9251,13 @@
       <c r="J47" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K47" s="23" t="n">
+      <c r="K47" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M47" s="25" t="n">
+      <c r="M47" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N47" s="8" t="s">
@@ -9282,13 +9292,13 @@
       <c r="J48" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K48" s="23" t="n">
+      <c r="K48" s="24" t="n">
         <v>350</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M48" s="25" t="n">
+      <c r="M48" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N48" s="8" t="s">
@@ -9323,13 +9333,13 @@
       <c r="J49" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K49" s="23" t="n">
+      <c r="K49" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M49" s="25" t="n">
+      <c r="M49" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N49" s="8" t="s">
@@ -9364,13 +9374,13 @@
       <c r="J50" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K50" s="23" t="n">
+      <c r="K50" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M50" s="25" t="n">
+      <c r="M50" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N50" s="8" t="s">
@@ -9405,13 +9415,13 @@
       <c r="J51" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K51" s="23" t="n">
+      <c r="K51" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="25" t="n">
+      <c r="M51" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N51" s="8" t="s">
@@ -9446,13 +9456,13 @@
       <c r="J52" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K52" s="23" t="n">
+      <c r="K52" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M52" s="25" t="n">
+      <c r="M52" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N52" s="8" t="s">
@@ -9487,13 +9497,13 @@
       <c r="J53" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K53" s="23" t="n">
+      <c r="K53" s="24" t="n">
         <v>350</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M53" s="25" t="n">
+      <c r="M53" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N53" s="8" t="s">
@@ -9528,13 +9538,13 @@
       <c r="J54" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K54" s="23" t="n">
+      <c r="K54" s="24" t="n">
         <v>900</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M54" s="25" t="n">
+      <c r="M54" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N54" s="8" t="s">
@@ -9569,13 +9579,13 @@
       <c r="J55" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K55" s="23" t="n">
+      <c r="K55" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M55" s="25" t="n">
+      <c r="M55" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N55" s="8" t="s">
@@ -9610,13 +9620,13 @@
       <c r="J56" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K56" s="23" t="n">
+      <c r="K56" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M56" s="25" t="n">
+      <c r="M56" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N56" s="8" t="s">
@@ -9651,13 +9661,13 @@
       <c r="J57" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K57" s="23" t="n">
+      <c r="K57" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M57" s="25" t="n">
+      <c r="M57" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N57" s="8" t="s">
@@ -9692,13 +9702,13 @@
       <c r="J58" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K58" s="23" t="n">
+      <c r="K58" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M58" s="25" t="n">
+      <c r="M58" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N58" s="8" t="s">
@@ -9733,13 +9743,13 @@
       <c r="J59" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K59" s="23" t="n">
+      <c r="K59" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M59" s="25" t="n">
+      <c r="M59" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N59" s="8" t="s">
@@ -9774,13 +9784,13 @@
       <c r="J60" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K60" s="23" t="n">
+      <c r="K60" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M60" s="25" t="n">
+      <c r="M60" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N60" s="8" t="s">
@@ -9815,13 +9825,13 @@
       <c r="J61" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K61" s="23" t="n">
+      <c r="K61" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M61" s="25" t="n">
+      <c r="M61" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N61" s="8" t="s">
@@ -9856,13 +9866,13 @@
       <c r="J62" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K62" s="23" t="n">
+      <c r="K62" s="24" t="n">
         <v>350</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M62" s="25" t="n">
+      <c r="M62" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N62" s="8" t="s">
@@ -9897,13 +9907,13 @@
       <c r="J63" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K63" s="23" t="n">
+      <c r="K63" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M63" s="25" t="n">
+      <c r="M63" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N63" s="8" t="s">
@@ -9938,13 +9948,13 @@
       <c r="J64" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K64" s="23" t="n">
+      <c r="K64" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M64" s="25" t="n">
+      <c r="M64" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N64" s="8" t="s">
@@ -9979,13 +9989,13 @@
       <c r="J65" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K65" s="23" t="n">
+      <c r="K65" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M65" s="25" t="n">
+      <c r="M65" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N65" s="8" t="s">
@@ -10020,13 +10030,13 @@
       <c r="J66" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K66" s="23" t="n">
+      <c r="K66" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M66" s="25" t="n">
+      <c r="M66" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N66" s="8" t="s">
@@ -10061,13 +10071,13 @@
       <c r="J67" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K67" s="23" t="n">
+      <c r="K67" s="24" t="n">
         <v>350</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M67" s="25" t="n">
+      <c r="M67" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N67" s="8" t="s">
@@ -10102,13 +10112,13 @@
       <c r="J68" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K68" s="23" t="n">
+      <c r="K68" s="24" t="n">
         <v>900</v>
       </c>
       <c r="L68" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M68" s="25" t="n">
+      <c r="M68" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N68" s="8" t="s">
@@ -10143,13 +10153,13 @@
       <c r="J69" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K69" s="23" t="n">
+      <c r="K69" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M69" s="25" t="n">
+      <c r="M69" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N69" s="8" t="s">
@@ -10184,13 +10194,13 @@
       <c r="J70" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K70" s="23" t="n">
+      <c r="K70" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L70" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M70" s="25" t="n">
+      <c r="M70" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N70" s="8" t="s">
@@ -10225,13 +10235,13 @@
       <c r="J71" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K71" s="23" t="n">
+      <c r="K71" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M71" s="25" t="n">
+      <c r="M71" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N71" s="8" t="s">
@@ -10266,13 +10276,13 @@
       <c r="J72" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K72" s="23" t="n">
+      <c r="K72" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L72" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="25" t="n">
+      <c r="M72" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N72" s="8" t="s">
@@ -10307,13 +10317,13 @@
       <c r="J73" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K73" s="23" t="n">
+      <c r="K73" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="25" t="n">
+      <c r="M73" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N73" s="8" t="s">
@@ -10348,13 +10358,13 @@
       <c r="J74" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K74" s="23" t="n">
+      <c r="K74" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L74" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M74" s="25" t="n">
+      <c r="M74" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N74" s="8" t="s">
@@ -10389,13 +10399,13 @@
       <c r="J75" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K75" s="23" t="n">
+      <c r="K75" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M75" s="25" t="n">
+      <c r="M75" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N75" s="8" t="s">
@@ -10430,13 +10440,13 @@
       <c r="J76" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K76" s="23" t="n">
+      <c r="K76" s="24" t="n">
         <v>350</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M76" s="25" t="n">
+      <c r="M76" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N76" s="8" t="s">
@@ -10471,13 +10481,13 @@
       <c r="J77" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K77" s="23" t="n">
+      <c r="K77" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M77" s="25" t="n">
+      <c r="M77" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N77" s="8" t="s">
@@ -10512,13 +10522,13 @@
       <c r="J78" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K78" s="23" t="n">
+      <c r="K78" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M78" s="25" t="n">
+      <c r="M78" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N78" s="8" t="s">
@@ -10553,13 +10563,13 @@
       <c r="J79" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K79" s="23" t="n">
+      <c r="K79" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M79" s="25" t="n">
+      <c r="M79" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N79" s="8" t="s">
@@ -10594,13 +10604,13 @@
       <c r="J80" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K80" s="23" t="n">
+      <c r="K80" s="24" t="n">
         <v>700</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M80" s="25" t="n">
+      <c r="M80" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N80" s="8" t="s">
@@ -10635,13 +10645,13 @@
       <c r="J81" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K81" s="23" t="n">
+      <c r="K81" s="24" t="n">
         <v>350</v>
       </c>
       <c r="L81" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M81" s="25" t="n">
+      <c r="M81" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N81" s="8" t="s">
@@ -10676,13 +10686,13 @@
       <c r="J82" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K82" s="23" t="n">
+      <c r="K82" s="24" t="n">
         <v>900</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M82" s="25" t="n">
+      <c r="M82" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N82" s="8" t="s">
@@ -10717,13 +10727,13 @@
       <c r="J83" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K83" s="23" t="n">
+      <c r="K83" s="24" t="n">
         <v>850</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M83" s="25" t="n">
+      <c r="M83" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N83" s="8" t="s">
@@ -10758,13 +10768,13 @@
       <c r="J84" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K84" s="23" t="n">
+      <c r="K84" s="24" t="n">
         <v>800</v>
       </c>
       <c r="L84" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M84" s="25" t="n">
+      <c r="M84" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N84" s="8" t="s">
@@ -10799,13 +10809,13 @@
       <c r="J85" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="K85" s="23" t="n">
+      <c r="K85" s="24" t="n">
         <v>750</v>
       </c>
       <c r="L85" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="M85" s="25" t="n">
+      <c r="M85" s="26" t="n">
         <v>45698</v>
       </c>
       <c r="N85" s="8" t="s">
